--- a/Exc2/Проверочный лист для аудита ИБ.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/src/yandex/sprint_7/architecture-sprint-7/Exc2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DF35F6-7C37-D443-A78A-442F939827AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72881DB-F707-304A-8923-7DF69E48952B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35700" yWindow="-5240" windowWidth="21100" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,10 +289,10 @@
     <t>На схеме нет firewall между сегментами</t>
   </si>
   <si>
-    <t>Судя по описанию, нет мобильных приложений</t>
-  </si>
-  <si>
     <t>Из описания этого не следует, но думаю, что никто не занимался</t>
+  </si>
+  <si>
+    <t>Есть упоминание про мобильное проложение, но нет никкого описаня</t>
   </si>
 </sst>
 </file>
@@ -414,6 +414,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,18 +437,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="13"/>
@@ -695,12 +695,12 @@
       </c>
     </row>
     <row r="4" spans="3:6" ht="30.75" customHeight="1">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="3:6" ht="83.5" customHeight="1">
       <c r="C5" s="2">
@@ -812,7 +812,7 @@
       <c r="E13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -838,7 +838,7 @@
       <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
       <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -866,7 +866,7 @@
       <c r="E17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -885,12 +885,12 @@
       </c>
     </row>
     <row r="19" spans="3:6" ht="36.75" customHeight="1">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="3:6" ht="75.75" customHeight="1">
       <c r="C20" s="2">
@@ -916,7 +916,7 @@
       <c r="E21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="29.25" customHeight="1">
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="3:6" ht="69" customHeight="1">
       <c r="C35" s="2">
@@ -1116,7 +1116,7 @@
       <c r="E36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1249,12 +1249,12 @@
       </c>
     </row>
     <row r="47" spans="3:6" ht="24.75" customHeight="1">
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="3:6" ht="82.5" customHeight="1">
       <c r="C48" s="2">
@@ -1341,20 +1341,20 @@
       </c>
     </row>
     <row r="54" spans="3:6" ht="24" customHeight="1">
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="3:6" ht="24" customHeight="1">
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="11"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="3:6" ht="102.75" customHeight="1">
       <c r="C56" s="2">
@@ -1364,8 +1364,8 @@
         <v>56</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="12" t="s">
-        <v>85</v>
+      <c r="F56" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="69" customHeight="1">
@@ -1392,8 +1392,8 @@
       <c r="E58" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>86</v>
+      <c r="F58" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="3:6" ht="78.75" customHeight="1">
@@ -1409,12 +1409,12 @@
       </c>
     </row>
     <row r="60" spans="3:6" ht="25.5" customHeight="1">
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="11"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="3:6" ht="67.5" customHeight="1">
       <c r="C61" s="2">
@@ -1453,12 +1453,12 @@
       </c>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="11"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="3:6" ht="42">
       <c r="C65" s="2">
